--- a/DATA/Grades/Second Year/2nd Year/1st Sem/BSIT 2A_IT205.xlsx
+++ b/DATA/Grades/Second Year/2nd Year/1st Sem/BSIT 2A_IT205.xlsx
@@ -1551,7 +1551,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1579,7 +1579,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1612,7 +1612,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image1.png"/>
+        <xdr:cNvPr id="0" name="image2.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1640,7 +1640,7 @@
     <xdr:ext cx="914400" cy="914400"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="image2.png"/>
+        <xdr:cNvPr id="0" name="image1.png"/>
         <xdr:cNvPicPr preferRelativeResize="0"/>
       </xdr:nvPicPr>
       <xdr:blipFill>
